--- a/Data/EC/NIT-9008762104.xlsx
+++ b/Data/EC/NIT-9008762104.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CCC345B-B80A-4BA1-82E4-F293A832B974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1884BA6D-A422-41E5-BC60-CA7622E0835F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1D34B65F-1C71-419F-9158-10E46C88EAFB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{98F555B1-3FAE-487A-90C4-1E254B073576}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="111">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,289 +65,277 @@
     <t>CC</t>
   </si>
   <si>
-    <t>71977545</t>
-  </si>
-  <si>
-    <t>ARSENIO ANTONIO VILLALBA BURGOS</t>
+    <t>9043885</t>
+  </si>
+  <si>
+    <t>MANUEL LUCIO TORRES CASTILLO</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1047385953</t>
+  </si>
+  <si>
+    <t>RICHARD PEREZ BATISTA</t>
+  </si>
+  <si>
+    <t>1052732407</t>
+  </si>
+  <si>
+    <t>ALVARO ALMEIDA RIVERA</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1050974239</t>
+  </si>
+  <si>
+    <t>EDINSON RAFAEL ROMERO GARCIA</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>9284538</t>
+  </si>
+  <si>
+    <t>LUIS MIGUEL ACUÑA TORRES</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
   </si>
   <si>
     <t>1702</t>
   </si>
   <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1002994520</t>
+  </si>
+  <si>
+    <t>JORGEN DAVID GONZALEZ PATIÑO</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>9177427</t>
+  </si>
+  <si>
+    <t>JHON JAIRO FIGUEROA CONTRERAS</t>
+  </si>
+  <si>
+    <t>1051445410</t>
+  </si>
+  <si>
+    <t>DEYSON DAVID DIAZ RUIZ</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
     <t>1050959131</t>
   </si>
   <si>
     <t>DAVID RODRIGUEZ CASTELLANOS</t>
   </si>
   <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>20135927</t>
+  </si>
+  <si>
+    <t>HERNIS HERNANDEZ SILGADO</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
     <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>9284538</t>
-  </si>
-  <si>
-    <t>LUIS MIGUEL ACUÑA TORRES</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>9043885</t>
-  </si>
-  <si>
-    <t>MANUEL LUCIO TORRES CASTILLO</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>9177427</t>
-  </si>
-  <si>
-    <t>JHON JAIRO FIGUEROA CONTRERAS</t>
-  </si>
-  <si>
-    <t>1047385953</t>
-  </si>
-  <si>
-    <t>RICHARD PEREZ BATISTA</t>
-  </si>
-  <si>
-    <t>1052732407</t>
-  </si>
-  <si>
-    <t>ALVARO ALMEIDA RIVERA</t>
-  </si>
-  <si>
-    <t>1050974239</t>
-  </si>
-  <si>
-    <t>EDINSON RAFAEL ROMERO GARCIA</t>
-  </si>
-  <si>
-    <t>1002994520</t>
-  </si>
-  <si>
-    <t>JORGEN DAVID GONZALEZ PATIÑO</t>
-  </si>
-  <si>
-    <t>1051445410</t>
-  </si>
-  <si>
-    <t>DEYSON DAVID DIAZ RUIZ</t>
-  </si>
-  <si>
-    <t>9186015</t>
-  </si>
-  <si>
-    <t>LUIS CARLOS CABARCAS CARDONA</t>
-  </si>
-  <si>
-    <t>20135927</t>
-  </si>
-  <si>
-    <t>HERNIS HERNANDEZ SILGADO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -446,7 +434,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -459,9 +449,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -661,23 +649,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,10 +693,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -761,7 +749,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A1B9DAF-EAA9-9113-6861-5D66DDBF9F94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9FDA72A-1680-961B-0638-1F4E8D4096A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1112,8 +1100,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE5480D9-A46D-4F0B-94C2-434FE8A9BCED}">
-  <dimension ref="B2:J487"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FD66FC0-12AF-474C-A907-B0667341E4D0}">
+  <dimension ref="B2:J427"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1124,7 +1112,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1137,7 +1125,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1182,7 +1170,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1214,12 +1202,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>14006871</v>
+        <v>12190198</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1230,14 +1218,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F13" s="5">
         <v>71</v>
@@ -1267,13 +1255,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1290,10 +1278,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1310,10 +1298,10 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>22916</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1327,16 +1315,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1350,19 +1338,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1379,10 +1367,10 @@
         <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1396,16 +1384,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1419,19 +1407,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G22" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1448,10 +1436,10 @@
         <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1465,16 +1453,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1488,16 +1476,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25740</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1511,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1540,10 +1528,10 @@
         <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1557,16 +1545,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1580,16 +1568,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1603,19 +1591,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G30" s="18">
-        <v>781242</v>
+        <v>689455</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1626,19 +1614,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G31" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1655,10 +1643,10 @@
         <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1672,16 +1660,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1695,16 +1683,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1718,19 +1706,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1747,10 +1735,10 @@
         <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1764,16 +1752,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1787,16 +1775,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1810,19 +1798,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1839,10 +1827,10 @@
         <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1856,16 +1844,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1879,16 +1867,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1902,19 +1890,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1931,10 +1919,10 @@
         <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1948,16 +1936,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1971,19 +1959,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1994,19 +1982,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -2023,10 +2011,10 @@
         <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -2040,16 +2028,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -2063,16 +2051,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -2086,19 +2074,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2115,10 +2103,10 @@
         <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2132,16 +2120,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2155,16 +2143,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F54" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2178,19 +2166,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G55" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2207,10 +2195,10 @@
         <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2224,16 +2212,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2247,16 +2235,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2270,19 +2258,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G59" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2293,16 +2281,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>19673</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2322,10 +2310,10 @@
         <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2339,16 +2327,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2362,16 +2350,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F63" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2385,16 +2373,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F64" s="18">
-        <v>29509</v>
+        <v>25575</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2408,19 +2396,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F65" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2431,13 +2419,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="F66" s="18">
         <v>29509</v>
@@ -2460,10 +2448,10 @@
         <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F67" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G67" s="18">
         <v>781242</v>
@@ -2477,16 +2465,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F68" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G68" s="18">
         <v>781242</v>
@@ -2500,16 +2488,16 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F69" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G69" s="18">
         <v>781242</v>
@@ -2523,13 +2511,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F70" s="18">
         <v>29509</v>
@@ -2546,19 +2534,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F71" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G71" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2569,16 +2557,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F72" s="18">
-        <v>6885</v>
+        <v>29509</v>
       </c>
       <c r="G72" s="18">
         <v>781242</v>
@@ -2592,19 +2580,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="F73" s="18">
         <v>27578</v>
       </c>
       <c r="G73" s="18">
-        <v>689455</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2615,19 +2603,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F74" s="18">
         <v>27578</v>
       </c>
       <c r="G74" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2638,19 +2626,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F75" s="18">
         <v>27578</v>
       </c>
       <c r="G75" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2661,19 +2649,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F76" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G76" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2684,13 +2672,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F77" s="18">
         <v>27578</v>
@@ -2707,19 +2695,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="F78" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G78" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2730,19 +2718,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="F79" s="18">
         <v>27578</v>
       </c>
       <c r="G79" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2753,19 +2741,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="F80" s="18">
         <v>27578</v>
       </c>
       <c r="G80" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2776,19 +2764,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="F81" s="18">
         <v>27578</v>
       </c>
       <c r="G81" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2799,19 +2787,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="F82" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G82" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2822,19 +2810,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="F83" s="18">
-        <v>27578</v>
+        <v>6885</v>
       </c>
       <c r="G83" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2845,13 +2833,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F84" s="18">
         <v>27578</v>
@@ -2868,19 +2856,19 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="F85" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G85" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2891,19 +2879,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F86" s="18">
         <v>27578</v>
       </c>
       <c r="G86" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2914,19 +2902,19 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="F87" s="18">
         <v>27578</v>
       </c>
       <c r="G87" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
@@ -2937,19 +2925,19 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="F88" s="18">
         <v>27578</v>
       </c>
       <c r="G88" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2960,19 +2948,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="F89" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G89" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2983,19 +2971,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="F90" s="18">
-        <v>27578</v>
+        <v>29509</v>
       </c>
       <c r="G90" s="18">
-        <v>877803</v>
+        <v>781242</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -3006,19 +2994,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>89</v>
+        <v>10</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F91" s="18">
-        <v>22916</v>
+        <v>27578</v>
       </c>
       <c r="G91" s="18">
-        <v>781242</v>
+        <v>877803</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -3029,16 +3017,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="F92" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -3052,16 +3040,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F93" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -3075,16 +3063,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F94" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -3098,16 +3086,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F95" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3121,16 +3109,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="F96" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3144,16 +3132,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="F97" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3167,16 +3155,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F98" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3190,16 +3178,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F99" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3213,16 +3201,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F100" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3236,16 +3224,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F101" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3259,16 +3247,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F102" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3282,16 +3270,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F103" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3305,16 +3293,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F104" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3328,16 +3316,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="F105" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3351,16 +3339,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F106" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3374,16 +3362,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F107" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3397,16 +3385,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F108" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G108" s="18">
         <v>781242</v>
@@ -3420,16 +3408,16 @@
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F109" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G109" s="18">
         <v>781242</v>
@@ -3443,16 +3431,16 @@
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="F110" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G110" s="18">
         <v>781242</v>
@@ -3466,16 +3454,16 @@
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F111" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G111" s="18">
         <v>781242</v>
@@ -3489,16 +3477,16 @@
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F112" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G112" s="18">
         <v>781242</v>
@@ -3512,16 +3500,16 @@
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F113" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G113" s="18">
         <v>781242</v>
@@ -3535,16 +3523,16 @@
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F114" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G114" s="18">
         <v>781242</v>
@@ -3558,16 +3546,16 @@
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F115" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G115" s="18">
         <v>781242</v>
@@ -3581,16 +3569,16 @@
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F116" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G116" s="18">
         <v>781242</v>
@@ -3604,16 +3592,16 @@
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F117" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G117" s="18">
         <v>781242</v>
@@ -3627,16 +3615,16 @@
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F118" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G118" s="18">
         <v>781242</v>
@@ -3650,16 +3638,16 @@
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F119" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G119" s="18">
         <v>781242</v>
@@ -3673,16 +3661,16 @@
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F120" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G120" s="18">
         <v>781242</v>
@@ -3696,16 +3684,16 @@
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F121" s="18">
-        <v>31249</v>
+        <v>20833</v>
       </c>
       <c r="G121" s="18">
         <v>781242</v>
@@ -3719,16 +3707,16 @@
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F122" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G122" s="18">
         <v>781242</v>
@@ -3742,16 +3730,16 @@
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F123" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G123" s="18">
         <v>781242</v>
@@ -3765,16 +3753,16 @@
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F124" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G124" s="18">
         <v>781242</v>
@@ -3788,16 +3776,16 @@
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F125" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G125" s="18">
         <v>781242</v>
@@ -3811,16 +3799,16 @@
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F126" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G126" s="18">
         <v>781242</v>
@@ -3834,16 +3822,16 @@
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E127" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F127" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G127" s="18">
         <v>781242</v>
@@ -3857,16 +3845,16 @@
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E128" s="16" t="s">
         <v>51</v>
       </c>
       <c r="F128" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G128" s="18">
         <v>781242</v>
@@ -3880,16 +3868,16 @@
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F129" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G129" s="18">
         <v>781242</v>
@@ -3903,16 +3891,16 @@
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F130" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G130" s="18">
         <v>781242</v>
@@ -3926,16 +3914,16 @@
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F131" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G131" s="18">
         <v>781242</v>
@@ -3949,16 +3937,16 @@
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F132" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G132" s="18">
         <v>781242</v>
@@ -3972,16 +3960,16 @@
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F133" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G133" s="18">
         <v>781242</v>
@@ -3995,16 +3983,16 @@
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F134" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G134" s="18">
         <v>781242</v>
@@ -4018,16 +4006,16 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F135" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G135" s="18">
         <v>781242</v>
@@ -4041,16 +4029,16 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F136" s="18">
-        <v>31249</v>
+        <v>27578</v>
       </c>
       <c r="G136" s="18">
         <v>781242</v>
@@ -4064,16 +4052,16 @@
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F137" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G137" s="18">
         <v>781242</v>
@@ -4087,16 +4075,16 @@
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F138" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G138" s="18">
         <v>781242</v>
@@ -4110,13 +4098,13 @@
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F139" s="18">
         <v>29509</v>
@@ -4133,13 +4121,13 @@
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F140" s="18">
         <v>29509</v>
@@ -4156,13 +4144,13 @@
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="F141" s="18">
         <v>29509</v>
@@ -4179,16 +4167,16 @@
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F142" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G142" s="18">
         <v>781242</v>
@@ -4202,16 +4190,16 @@
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F143" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G143" s="18">
         <v>781242</v>
@@ -4225,16 +4213,16 @@
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="F144" s="18">
-        <v>29509</v>
+        <v>27578</v>
       </c>
       <c r="G144" s="18">
         <v>781242</v>
@@ -4248,13 +4236,13 @@
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="F145" s="18">
         <v>29509</v>
@@ -4271,16 +4259,16 @@
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="F146" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G146" s="18">
         <v>781242</v>
@@ -4294,16 +4282,16 @@
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F147" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G147" s="18">
         <v>781242</v>
@@ -4317,16 +4305,16 @@
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F148" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G148" s="18">
         <v>781242</v>
@@ -4340,16 +4328,16 @@
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F149" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G149" s="18">
         <v>781242</v>
@@ -4363,16 +4351,16 @@
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="F150" s="18">
-        <v>19673</v>
+        <v>31249</v>
       </c>
       <c r="G150" s="18">
         <v>781242</v>
@@ -4386,16 +4374,16 @@
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="F151" s="18">
-        <v>22916</v>
+        <v>31249</v>
       </c>
       <c r="G151" s="18">
         <v>781242</v>
@@ -4409,13 +4397,13 @@
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F152" s="18">
         <v>31249</v>
@@ -4432,13 +4420,13 @@
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F153" s="18">
         <v>31249</v>
@@ -4455,13 +4443,13 @@
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F154" s="18">
         <v>31249</v>
@@ -4478,13 +4466,13 @@
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="F155" s="18">
         <v>31249</v>
@@ -4501,13 +4489,13 @@
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="F156" s="18">
         <v>31249</v>
@@ -4524,13 +4512,13 @@
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F157" s="18">
         <v>31249</v>
@@ -4547,13 +4535,13 @@
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F158" s="18">
         <v>31249</v>
@@ -4570,13 +4558,13 @@
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F159" s="18">
         <v>31249</v>
@@ -4593,13 +4581,13 @@
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="F160" s="18">
         <v>31249</v>
@@ -4616,13 +4604,13 @@
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="F161" s="18">
         <v>31249</v>
@@ -4639,13 +4627,13 @@
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F162" s="18">
         <v>31249</v>
@@ -4662,13 +4650,13 @@
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="F163" s="18">
         <v>31249</v>
@@ -4685,13 +4673,13 @@
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E164" s="16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="F164" s="18">
         <v>31249</v>
@@ -4708,13 +4696,13 @@
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E165" s="16" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F165" s="18">
         <v>31249</v>
@@ -4731,13 +4719,13 @@
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D166" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E166" s="16" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F166" s="18">
         <v>31249</v>
@@ -4754,13 +4742,13 @@
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D167" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F167" s="18">
         <v>31249</v>
@@ -4777,13 +4765,13 @@
         <v>8</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D168" s="17" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E168" s="16" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="F168" s="18">
         <v>31249</v>
@@ -4800,13 +4788,13 @@
         <v>8</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D169" s="17" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E169" s="16" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="F169" s="18">
         <v>31249</v>
@@ -4823,13 +4811,13 @@
         <v>8</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D170" s="17" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E170" s="16" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F170" s="18">
         <v>31249</v>
@@ -4846,13 +4834,13 @@
         <v>8</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D171" s="17" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="F171" s="18">
         <v>31249</v>
@@ -4869,13 +4857,13 @@
         <v>8</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D172" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F172" s="18">
         <v>31249</v>
@@ -4892,13 +4880,13 @@
         <v>8</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D173" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E173" s="16" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F173" s="18">
         <v>31249</v>
@@ -4915,13 +4903,13 @@
         <v>8</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D174" s="17" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E174" s="16" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F174" s="18">
         <v>31249</v>
@@ -4938,13 +4926,13 @@
         <v>8</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D175" s="17" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F175" s="18">
         <v>31249</v>
@@ -4961,13 +4949,13 @@
         <v>8</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D176" s="17" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E176" s="16" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="F176" s="18">
         <v>31249</v>
@@ -4984,13 +4972,13 @@
         <v>8</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D177" s="17" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F177" s="18">
         <v>31249</v>
@@ -5007,13 +4995,13 @@
         <v>8</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D178" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E178" s="16" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="F178" s="18">
         <v>31249</v>
@@ -5030,13 +5018,13 @@
         <v>8</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D179" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E179" s="16" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F179" s="18">
         <v>31249</v>
@@ -5053,13 +5041,13 @@
         <v>8</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D180" s="17" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E180" s="16" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F180" s="18">
         <v>31249</v>
@@ -5076,13 +5064,13 @@
         <v>8</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D181" s="17" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E181" s="16" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F181" s="18">
         <v>31249</v>
@@ -5099,13 +5087,13 @@
         <v>8</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D182" s="17" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E182" s="16" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F182" s="18">
         <v>31249</v>
@@ -5122,13 +5110,13 @@
         <v>8</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D183" s="17" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="F183" s="18">
         <v>31249</v>
@@ -5145,13 +5133,13 @@
         <v>8</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D184" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F184" s="18">
         <v>31249</v>
@@ -5168,13 +5156,13 @@
         <v>8</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D185" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F185" s="18">
         <v>31249</v>
@@ -5191,13 +5179,13 @@
         <v>8</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D186" s="17" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F186" s="18">
         <v>31249</v>
@@ -5214,13 +5202,13 @@
         <v>8</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D187" s="17" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F187" s="18">
         <v>31249</v>
@@ -5237,13 +5225,13 @@
         <v>8</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D188" s="17" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E188" s="16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F188" s="18">
         <v>31249</v>
@@ -5260,13 +5248,13 @@
         <v>8</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D189" s="17" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E189" s="16" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F189" s="18">
         <v>31249</v>
@@ -5283,13 +5271,13 @@
         <v>8</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D190" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="F190" s="18">
         <v>31249</v>
@@ -5306,13 +5294,13 @@
         <v>8</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D191" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E191" s="16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F191" s="18">
         <v>31249</v>
@@ -5329,13 +5317,13 @@
         <v>8</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D192" s="17" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E192" s="16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F192" s="18">
         <v>31249</v>
@@ -5352,13 +5340,13 @@
         <v>8</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D193" s="17" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E193" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F193" s="18">
         <v>31249</v>
@@ -5375,13 +5363,13 @@
         <v>8</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D194" s="17" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E194" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F194" s="18">
         <v>31249</v>
@@ -5398,13 +5386,13 @@
         <v>8</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D195" s="17" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E195" s="16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F195" s="18">
         <v>31249</v>
@@ -5421,13 +5409,13 @@
         <v>8</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D196" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E196" s="16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F196" s="18">
         <v>31249</v>
@@ -5444,16 +5432,16 @@
         <v>8</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E197" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F197" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G197" s="18">
         <v>781242</v>
@@ -5467,16 +5455,16 @@
         <v>8</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D198" s="17" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E198" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F198" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G198" s="18">
         <v>781242</v>
@@ -5490,16 +5478,16 @@
         <v>8</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D199" s="17" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E199" s="16" t="s">
         <v>62</v>
       </c>
       <c r="F199" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G199" s="18">
         <v>781242</v>
@@ -5513,16 +5501,16 @@
         <v>8</v>
       </c>
       <c r="C200" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D200" s="17" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E200" s="16" t="s">
         <v>63</v>
       </c>
       <c r="F200" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G200" s="18">
         <v>781242</v>
@@ -5536,16 +5524,16 @@
         <v>8</v>
       </c>
       <c r="C201" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D201" s="17" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E201" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F201" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G201" s="18">
         <v>781242</v>
@@ -5559,16 +5547,16 @@
         <v>8</v>
       </c>
       <c r="C202" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D202" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E202" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F202" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G202" s="18">
         <v>781242</v>
@@ -5582,16 +5570,16 @@
         <v>8</v>
       </c>
       <c r="C203" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D203" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E203" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F203" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G203" s="18">
         <v>781242</v>
@@ -5605,16 +5593,16 @@
         <v>8</v>
       </c>
       <c r="C204" s="16" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D204" s="17" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E204" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F204" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G204" s="18">
         <v>781242</v>
@@ -5628,16 +5616,16 @@
         <v>8</v>
       </c>
       <c r="C205" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D205" s="17" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E205" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F205" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G205" s="18">
         <v>781242</v>
@@ -5651,16 +5639,16 @@
         <v>8</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D206" s="17" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E206" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F206" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G206" s="18">
         <v>781242</v>
@@ -5674,16 +5662,16 @@
         <v>8</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D207" s="17" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E207" s="16" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F207" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G207" s="18">
         <v>781242</v>
@@ -5697,16 +5685,16 @@
         <v>8</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D208" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E208" s="16" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F208" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G208" s="18">
         <v>781242</v>
@@ -5720,16 +5708,16 @@
         <v>8</v>
       </c>
       <c r="C209" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D209" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E209" s="16" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F209" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G209" s="18">
         <v>781242</v>
@@ -5743,16 +5731,16 @@
         <v>8</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E210" s="16" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F210" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G210" s="18">
         <v>781242</v>
@@ -5766,16 +5754,16 @@
         <v>8</v>
       </c>
       <c r="C211" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D211" s="17" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E211" s="16" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="F211" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G211" s="18">
         <v>781242</v>
@@ -5789,16 +5777,16 @@
         <v>8</v>
       </c>
       <c r="C212" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D212" s="17" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E212" s="16" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="F212" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G212" s="18">
         <v>781242</v>
@@ -5812,16 +5800,16 @@
         <v>8</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D213" s="17" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E213" s="16" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F213" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G213" s="18">
         <v>781242</v>
@@ -5835,16 +5823,16 @@
         <v>8</v>
       </c>
       <c r="C214" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D214" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E214" s="16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="F214" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G214" s="18">
         <v>781242</v>
@@ -5858,16 +5846,16 @@
         <v>8</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D215" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E215" s="16" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="F215" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G215" s="18">
         <v>781242</v>
@@ -5881,16 +5869,16 @@
         <v>8</v>
       </c>
       <c r="C216" s="16" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="D216" s="17" t="s">
-        <v>91</v>
+        <v>19</v>
       </c>
       <c r="E216" s="16" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F216" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G216" s="18">
         <v>781242</v>
@@ -5904,16 +5892,16 @@
         <v>8</v>
       </c>
       <c r="C217" s="16" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="E217" s="16" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F217" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G217" s="18">
         <v>781242</v>
@@ -5927,16 +5915,16 @@
         <v>8</v>
       </c>
       <c r="C218" s="16" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D218" s="17" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="E218" s="16" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F218" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G218" s="18">
         <v>781242</v>
@@ -5950,16 +5938,16 @@
         <v>8</v>
       </c>
       <c r="C219" s="16" t="s">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="D219" s="17" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="E219" s="16" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="F219" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G219" s="18">
         <v>781242</v>
@@ -5973,16 +5961,16 @@
         <v>8</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="E220" s="16" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F220" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G220" s="18">
         <v>781242</v>
@@ -5996,16 +5984,16 @@
         <v>8</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D221" s="17" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E221" s="16" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="F221" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G221" s="18">
         <v>781242</v>
@@ -6019,16 +6007,16 @@
         <v>8</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E222" s="16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F222" s="18">
-        <v>22916</v>
+        <v>31249</v>
       </c>
       <c r="G222" s="18">
         <v>781242</v>
@@ -6042,13 +6030,13 @@
         <v>8</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D223" s="17" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E223" s="16" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F223" s="18">
         <v>31249</v>
@@ -6065,13 +6053,13 @@
         <v>8</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D224" s="17" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E224" s="16" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="F224" s="18">
         <v>31249</v>
@@ -6088,13 +6076,13 @@
         <v>8</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D225" s="17" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E225" s="16" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F225" s="18">
         <v>31249</v>
@@ -6111,13 +6099,13 @@
         <v>8</v>
       </c>
       <c r="C226" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D226" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E226" s="16" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F226" s="18">
         <v>31249</v>
@@ -6134,13 +6122,13 @@
         <v>8</v>
       </c>
       <c r="C227" s="16" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E227" s="16" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F227" s="18">
         <v>31249</v>
@@ -6157,13 +6145,13 @@
         <v>8</v>
       </c>
       <c r="C228" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D228" s="17" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E228" s="16" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="F228" s="18">
         <v>31249</v>
@@ -6180,13 +6168,13 @@
         <v>8</v>
       </c>
       <c r="C229" s="16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D229" s="17" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E229" s="16" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="F229" s="18">
         <v>31249</v>
@@ -6203,13 +6191,13 @@
         <v>8</v>
       </c>
       <c r="C230" s="16" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D230" s="17" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E230" s="16" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="F230" s="18">
         <v>31249</v>
@@ -6226,13 +6214,13 @@
         <v>8</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D231" s="17" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E231" s="16" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F231" s="18">
         <v>31249</v>
@@ -6249,13 +6237,13 @@
         <v>8</v>
       </c>
       <c r="C232" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D232" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E232" s="16" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="F232" s="18">
         <v>31249</v>
@@ -6272,13 +6260,13 @@
         <v>8</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D233" s="17" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E233" s="16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="F233" s="18">
         <v>31249</v>
@@ -6295,13 +6283,13 @@
         <v>8</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D234" s="17" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E234" s="16" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="F234" s="18">
         <v>31249</v>
@@ -6318,13 +6306,13 @@
         <v>8</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D235" s="17" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E235" s="16" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F235" s="18">
         <v>31249</v>
@@ -6341,13 +6329,13 @@
         <v>8</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E236" s="16" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="F236" s="18">
         <v>31249</v>
@@ -6364,13 +6352,13 @@
         <v>8</v>
       </c>
       <c r="C237" s="16" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D237" s="17" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E237" s="16" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F237" s="18">
         <v>31249</v>
@@ -6387,13 +6375,13 @@
         <v>8</v>
       </c>
       <c r="C238" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D238" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E238" s="16" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F238" s="18">
         <v>31249</v>
@@ -6410,13 +6398,13 @@
         <v>8</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E239" s="16" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F239" s="18">
         <v>31249</v>
@@ -6433,13 +6421,13 @@
         <v>8</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D240" s="17" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E240" s="16" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F240" s="18">
         <v>31249</v>
@@ -6456,13 +6444,13 @@
         <v>8</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D241" s="17" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E241" s="16" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="F241" s="18">
         <v>31249</v>
@@ -6479,13 +6467,13 @@
         <v>8</v>
       </c>
       <c r="C242" s="16" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D242" s="17" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E242" s="16" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="F242" s="18">
         <v>31249</v>
@@ -6502,13 +6490,13 @@
         <v>8</v>
       </c>
       <c r="C243" s="16" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D243" s="17" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E243" s="16" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F243" s="18">
         <v>31249</v>
@@ -6525,13 +6513,13 @@
         <v>8</v>
       </c>
       <c r="C244" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D244" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E244" s="16" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F244" s="18">
         <v>31249</v>
@@ -6548,13 +6536,13 @@
         <v>8</v>
       </c>
       <c r="C245" s="16" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D245" s="17" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E245" s="16" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F245" s="18">
         <v>31249</v>
@@ -6571,13 +6559,13 @@
         <v>8</v>
       </c>
       <c r="C246" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D246" s="17" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E246" s="16" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F246" s="18">
         <v>31249</v>
@@ -6594,13 +6582,13 @@
         <v>8</v>
       </c>
       <c r="C247" s="16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D247" s="17" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E247" s="16" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="F247" s="18">
         <v>31249</v>
@@ -6617,13 +6605,13 @@
         <v>8</v>
       </c>
       <c r="C248" s="16" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D248" s="17" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E248" s="16" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F248" s="18">
         <v>31249</v>
@@ -6640,13 +6628,13 @@
         <v>8</v>
       </c>
       <c r="C249" s="16" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D249" s="17" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E249" s="16" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="F249" s="18">
         <v>31249</v>
@@ -6663,13 +6651,13 @@
         <v>8</v>
       </c>
       <c r="C250" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D250" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E250" s="16" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="F250" s="18">
         <v>31249</v>
@@ -6686,13 +6674,13 @@
         <v>8</v>
       </c>
       <c r="C251" s="16" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D251" s="17" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E251" s="16" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="F251" s="18">
         <v>31249</v>
@@ -6709,13 +6697,13 @@
         <v>8</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D252" s="17" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E252" s="16" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="F252" s="18">
         <v>31249</v>
@@ -6732,13 +6720,13 @@
         <v>8</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D253" s="17" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E253" s="16" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="F253" s="18">
         <v>31249</v>
@@ -6755,13 +6743,13 @@
         <v>8</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D254" s="17" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E254" s="16" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F254" s="18">
         <v>31249</v>
@@ -6778,13 +6766,13 @@
         <v>8</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D255" s="17" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E255" s="16" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="F255" s="18">
         <v>31249</v>
@@ -6801,13 +6789,13 @@
         <v>8</v>
       </c>
       <c r="C256" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D256" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E256" s="16" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="F256" s="18">
         <v>31249</v>
@@ -6824,13 +6812,13 @@
         <v>8</v>
       </c>
       <c r="C257" s="16" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D257" s="17" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E257" s="16" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="F257" s="18">
         <v>31249</v>
@@ -6847,13 +6835,13 @@
         <v>8</v>
       </c>
       <c r="C258" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E258" s="16" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F258" s="18">
         <v>31249</v>
@@ -6870,13 +6858,13 @@
         <v>8</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E259" s="16" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F259" s="18">
         <v>31249</v>
@@ -6893,13 +6881,13 @@
         <v>8</v>
       </c>
       <c r="C260" s="16" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D260" s="17" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E260" s="16" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F260" s="18">
         <v>31249</v>
@@ -6916,13 +6904,13 @@
         <v>8</v>
       </c>
       <c r="C261" s="16" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D261" s="17" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E261" s="16" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F261" s="18">
         <v>31249</v>
@@ -6939,13 +6927,13 @@
         <v>8</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D262" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E262" s="16" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F262" s="18">
         <v>31249</v>
@@ -6962,13 +6950,13 @@
         <v>8</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D263" s="17" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E263" s="16" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F263" s="18">
         <v>31249</v>
@@ -6985,13 +6973,13 @@
         <v>8</v>
       </c>
       <c r="C264" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E264" s="16" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F264" s="18">
         <v>31249</v>
@@ -7008,13 +6996,13 @@
         <v>8</v>
       </c>
       <c r="C265" s="16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D265" s="17" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E265" s="16" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="F265" s="18">
         <v>31249</v>
@@ -7031,13 +7019,13 @@
         <v>8</v>
       </c>
       <c r="C266" s="16" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E266" s="16" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F266" s="18">
         <v>31249</v>
@@ -7054,13 +7042,13 @@
         <v>8</v>
       </c>
       <c r="C267" s="16" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E267" s="16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F267" s="18">
         <v>31249</v>
@@ -7077,16 +7065,16 @@
         <v>8</v>
       </c>
       <c r="C268" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E268" s="16" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="F268" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G268" s="18">
         <v>781242</v>
@@ -7100,16 +7088,16 @@
         <v>8</v>
       </c>
       <c r="C269" s="16" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E269" s="16" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="F269" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G269" s="18">
         <v>781242</v>
@@ -7123,16 +7111,16 @@
         <v>8</v>
       </c>
       <c r="C270" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E270" s="16" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F270" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G270" s="18">
         <v>781242</v>
@@ -7146,16 +7134,16 @@
         <v>8</v>
       </c>
       <c r="C271" s="16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E271" s="16" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F271" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G271" s="18">
         <v>781242</v>
@@ -7169,16 +7157,16 @@
         <v>8</v>
       </c>
       <c r="C272" s="16" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E272" s="16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F272" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G272" s="18">
         <v>781242</v>
@@ -7192,16 +7180,16 @@
         <v>8</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E273" s="16" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F273" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G273" s="18">
         <v>781242</v>
@@ -7215,16 +7203,16 @@
         <v>8</v>
       </c>
       <c r="C274" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E274" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F274" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G274" s="18">
         <v>781242</v>
@@ -7238,16 +7226,16 @@
         <v>8</v>
       </c>
       <c r="C275" s="16" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E275" s="16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F275" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G275" s="18">
         <v>781242</v>
@@ -7261,16 +7249,16 @@
         <v>8</v>
       </c>
       <c r="C276" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E276" s="16" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F276" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G276" s="18">
         <v>781242</v>
@@ -7284,16 +7272,16 @@
         <v>8</v>
       </c>
       <c r="C277" s="16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E277" s="16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F277" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G277" s="18">
         <v>781242</v>
@@ -7307,16 +7295,16 @@
         <v>8</v>
       </c>
       <c r="C278" s="16" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E278" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F278" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G278" s="18">
         <v>781242</v>
@@ -7330,16 +7318,16 @@
         <v>8</v>
       </c>
       <c r="C279" s="16" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E279" s="16" t="s">
         <v>76</v>
       </c>
       <c r="F279" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G279" s="18">
         <v>781242</v>
@@ -7353,16 +7341,16 @@
         <v>8</v>
       </c>
       <c r="C280" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E280" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F280" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G280" s="18">
         <v>781242</v>
@@ -7376,16 +7364,16 @@
         <v>8</v>
       </c>
       <c r="C281" s="16" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E281" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F281" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G281" s="18">
         <v>781242</v>
@@ -7399,16 +7387,16 @@
         <v>8</v>
       </c>
       <c r="C282" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E282" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F282" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G282" s="18">
         <v>781242</v>
@@ -7422,16 +7410,16 @@
         <v>8</v>
       </c>
       <c r="C283" s="16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E283" s="16" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F283" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G283" s="18">
         <v>781242</v>
@@ -7445,16 +7433,16 @@
         <v>8</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D284" s="17" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E284" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F284" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G284" s="18">
         <v>781242</v>
@@ -7468,16 +7456,16 @@
         <v>8</v>
       </c>
       <c r="C285" s="16" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E285" s="16" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="F285" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G285" s="18">
         <v>781242</v>
@@ -7491,16 +7479,16 @@
         <v>8</v>
       </c>
       <c r="C286" s="16" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="D286" s="17" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="E286" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F286" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G286" s="18">
         <v>781242</v>
@@ -7514,16 +7502,16 @@
         <v>8</v>
       </c>
       <c r="C287" s="16" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="D287" s="17" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="E287" s="16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F287" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G287" s="18">
         <v>781242</v>
@@ -7537,16 +7525,16 @@
         <v>8</v>
       </c>
       <c r="C288" s="16" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="D288" s="17" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="E288" s="16" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F288" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G288" s="18">
         <v>781242</v>
@@ -7560,16 +7548,16 @@
         <v>8</v>
       </c>
       <c r="C289" s="16" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="D289" s="17" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F289" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G289" s="18">
         <v>781242</v>
@@ -7583,16 +7571,16 @@
         <v>8</v>
       </c>
       <c r="C290" s="16" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="D290" s="17" t="s">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="E290" s="16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F290" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G290" s="18">
         <v>781242</v>
@@ -7606,16 +7594,16 @@
         <v>8</v>
       </c>
       <c r="C291" s="16" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="D291" s="17" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="E291" s="16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F291" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G291" s="18">
         <v>781242</v>
@@ -7629,16 +7617,16 @@
         <v>8</v>
       </c>
       <c r="C292" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D292" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E292" s="16" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F292" s="18">
-        <v>22916</v>
+        <v>31249</v>
       </c>
       <c r="G292" s="18">
         <v>781242</v>
@@ -7652,13 +7640,13 @@
         <v>8</v>
       </c>
       <c r="C293" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D293" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E293" s="16" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="F293" s="18">
         <v>31249</v>
@@ -7675,13 +7663,13 @@
         <v>8</v>
       </c>
       <c r="C294" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D294" s="17" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E294" s="16" t="s">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="F294" s="18">
         <v>31249</v>
@@ -7698,13 +7686,13 @@
         <v>8</v>
       </c>
       <c r="C295" s="16" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D295" s="17" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E295" s="16" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="F295" s="18">
         <v>31249</v>
@@ -7721,13 +7709,13 @@
         <v>8</v>
       </c>
       <c r="C296" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D296" s="17" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="F296" s="18">
         <v>31249</v>
@@ -7744,13 +7732,13 @@
         <v>8</v>
       </c>
       <c r="C297" s="16" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D297" s="17" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E297" s="16" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="F297" s="18">
         <v>31249</v>
@@ -7767,13 +7755,13 @@
         <v>8</v>
       </c>
       <c r="C298" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E298" s="16" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="F298" s="18">
         <v>31249</v>
@@ -7790,13 +7778,13 @@
         <v>8</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E299" s="16" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="F299" s="18">
         <v>31249</v>
@@ -7813,13 +7801,13 @@
         <v>8</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E300" s="16" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="F300" s="18">
         <v>31249</v>
@@ -7836,13 +7824,13 @@
         <v>8</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E301" s="16" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F301" s="18">
         <v>31249</v>
@@ -7859,13 +7847,13 @@
         <v>8</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E302" s="16" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F302" s="18">
         <v>31249</v>
@@ -7882,13 +7870,13 @@
         <v>8</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E303" s="16" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="F303" s="18">
         <v>31249</v>
@@ -7905,13 +7893,13 @@
         <v>8</v>
       </c>
       <c r="C304" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E304" s="16" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="F304" s="18">
         <v>31249</v>
@@ -7928,13 +7916,13 @@
         <v>8</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E305" s="16" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="F305" s="18">
         <v>31249</v>
@@ -7951,13 +7939,13 @@
         <v>8</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E306" s="16" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F306" s="18">
         <v>31249</v>
@@ -7974,13 +7962,13 @@
         <v>8</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D307" s="17" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E307" s="16" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F307" s="18">
         <v>31249</v>
@@ -7997,13 +7985,13 @@
         <v>8</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E308" s="16" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="F308" s="18">
         <v>31249</v>
@@ -8020,13 +8008,13 @@
         <v>8</v>
       </c>
       <c r="C309" s="16" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D309" s="17" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E309" s="16" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="F309" s="18">
         <v>31249</v>
@@ -8043,13 +8031,13 @@
         <v>8</v>
       </c>
       <c r="C310" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D310" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E310" s="16" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F310" s="18">
         <v>31249</v>
@@ -8066,13 +8054,13 @@
         <v>8</v>
       </c>
       <c r="C311" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E311" s="16" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="F311" s="18">
         <v>31249</v>
@@ -8089,13 +8077,13 @@
         <v>8</v>
       </c>
       <c r="C312" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E312" s="16" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="F312" s="18">
         <v>31249</v>
@@ -8112,13 +8100,13 @@
         <v>8</v>
       </c>
       <c r="C313" s="16" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E313" s="16" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F313" s="18">
         <v>31249</v>
@@ -8135,13 +8123,13 @@
         <v>8</v>
       </c>
       <c r="C314" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D314" s="17" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E314" s="16" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="F314" s="18">
         <v>31249</v>
@@ -8158,13 +8146,13 @@
         <v>8</v>
       </c>
       <c r="C315" s="16" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E315" s="16" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F315" s="18">
         <v>31249</v>
@@ -8181,13 +8169,13 @@
         <v>8</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D316" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E316" s="16" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F316" s="18">
         <v>31249</v>
@@ -8204,13 +8192,13 @@
         <v>8</v>
       </c>
       <c r="C317" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D317" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E317" s="16" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="F317" s="18">
         <v>31249</v>
@@ -8227,13 +8215,13 @@
         <v>8</v>
       </c>
       <c r="C318" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D318" s="17" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E318" s="16" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="F318" s="18">
         <v>31249</v>
@@ -8250,13 +8238,13 @@
         <v>8</v>
       </c>
       <c r="C319" s="16" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D319" s="17" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E319" s="16" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="F319" s="18">
         <v>31249</v>
@@ -8273,13 +8261,13 @@
         <v>8</v>
       </c>
       <c r="C320" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D320" s="17" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E320" s="16" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F320" s="18">
         <v>31249</v>
@@ -8296,13 +8284,13 @@
         <v>8</v>
       </c>
       <c r="C321" s="16" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D321" s="17" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E321" s="16" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F321" s="18">
         <v>31249</v>
@@ -8319,13 +8307,13 @@
         <v>8</v>
       </c>
       <c r="C322" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D322" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E322" s="16" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="F322" s="18">
         <v>31249</v>
@@ -8342,13 +8330,13 @@
         <v>8</v>
       </c>
       <c r="C323" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D323" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E323" s="16" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="F323" s="18">
         <v>31249</v>
@@ -8365,13 +8353,13 @@
         <v>8</v>
       </c>
       <c r="C324" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D324" s="17" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E324" s="16" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="F324" s="18">
         <v>31249</v>
@@ -8388,13 +8376,13 @@
         <v>8</v>
       </c>
       <c r="C325" s="16" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D325" s="17" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E325" s="16" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="F325" s="18">
         <v>31249</v>
@@ -8411,13 +8399,13 @@
         <v>8</v>
       </c>
       <c r="C326" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E326" s="16" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F326" s="18">
         <v>31249</v>
@@ -8434,13 +8422,13 @@
         <v>8</v>
       </c>
       <c r="C327" s="16" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E327" s="16" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="F327" s="18">
         <v>31249</v>
@@ -8457,13 +8445,13 @@
         <v>8</v>
       </c>
       <c r="C328" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E328" s="16" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F328" s="18">
         <v>31249</v>
@@ -8480,13 +8468,13 @@
         <v>8</v>
       </c>
       <c r="C329" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D329" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E329" s="16" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="F329" s="18">
         <v>31249</v>
@@ -8503,13 +8491,13 @@
         <v>8</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D330" s="17" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E330" s="16" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="F330" s="18">
         <v>31249</v>
@@ -8526,13 +8514,13 @@
         <v>8</v>
       </c>
       <c r="C331" s="16" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D331" s="17" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E331" s="16" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="F331" s="18">
         <v>31249</v>
@@ -8549,13 +8537,13 @@
         <v>8</v>
       </c>
       <c r="C332" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D332" s="17" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E332" s="16" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F332" s="18">
         <v>31249</v>
@@ -8572,13 +8560,13 @@
         <v>8</v>
       </c>
       <c r="C333" s="16" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D333" s="17" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E333" s="16" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F333" s="18">
         <v>31249</v>
@@ -8595,13 +8583,13 @@
         <v>8</v>
       </c>
       <c r="C334" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D334" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="F334" s="18">
         <v>31249</v>
@@ -8618,13 +8606,13 @@
         <v>8</v>
       </c>
       <c r="C335" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D335" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F335" s="18">
         <v>31249</v>
@@ -8641,13 +8629,13 @@
         <v>8</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D336" s="17" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E336" s="16" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="F336" s="18">
         <v>31249</v>
@@ -8664,13 +8652,13 @@
         <v>8</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D337" s="17" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E337" s="16" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F337" s="18">
         <v>31249</v>
@@ -8687,16 +8675,16 @@
         <v>8</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D338" s="17" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E338" s="16" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="F338" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G338" s="18">
         <v>781242</v>
@@ -8710,16 +8698,16 @@
         <v>8</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D339" s="17" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E339" s="16" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="F339" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G339" s="18">
         <v>781242</v>
@@ -8733,16 +8721,16 @@
         <v>8</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D340" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E340" s="16" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F340" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G340" s="18">
         <v>781242</v>
@@ -8756,16 +8744,16 @@
         <v>8</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D341" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E341" s="16" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F341" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G341" s="18">
         <v>781242</v>
@@ -8779,16 +8767,16 @@
         <v>8</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D342" s="17" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E342" s="16" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F342" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G342" s="18">
         <v>781242</v>
@@ -8802,16 +8790,16 @@
         <v>8</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D343" s="17" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E343" s="16" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="F343" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G343" s="18">
         <v>781242</v>
@@ -8825,16 +8813,16 @@
         <v>8</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D344" s="17" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E344" s="16" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="F344" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G344" s="18">
         <v>781242</v>
@@ -8848,16 +8836,16 @@
         <v>8</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D345" s="17" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E345" s="16" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F345" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G345" s="18">
         <v>781242</v>
@@ -8871,16 +8859,16 @@
         <v>8</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D346" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E346" s="16" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F346" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G346" s="18">
         <v>781242</v>
@@ -8894,16 +8882,16 @@
         <v>8</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D347" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E347" s="16" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="F347" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G347" s="18">
         <v>781242</v>
@@ -8917,16 +8905,16 @@
         <v>8</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D348" s="17" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E348" s="16" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F348" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G348" s="18">
         <v>781242</v>
@@ -8940,16 +8928,16 @@
         <v>8</v>
       </c>
       <c r="C349" s="16" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D349" s="17" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E349" s="16" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F349" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G349" s="18">
         <v>781242</v>
@@ -8963,16 +8951,16 @@
         <v>8</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D350" s="17" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E350" s="16" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F350" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G350" s="18">
         <v>781242</v>
@@ -8986,16 +8974,16 @@
         <v>8</v>
       </c>
       <c r="C351" s="16" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D351" s="17" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E351" s="16" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F351" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G351" s="18">
         <v>781242</v>
@@ -9009,16 +8997,16 @@
         <v>8</v>
       </c>
       <c r="C352" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D352" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E352" s="16" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F352" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G352" s="18">
         <v>781242</v>
@@ -9032,16 +9020,16 @@
         <v>8</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D353" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E353" s="16" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F353" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G353" s="18">
         <v>781242</v>
@@ -9055,16 +9043,16 @@
         <v>8</v>
       </c>
       <c r="C354" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D354" s="17" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E354" s="16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F354" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G354" s="18">
         <v>781242</v>
@@ -9078,16 +9066,16 @@
         <v>8</v>
       </c>
       <c r="C355" s="16" t="s">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="D355" s="17" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="E355" s="16" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F355" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G355" s="18">
         <v>781242</v>
@@ -9101,16 +9089,16 @@
         <v>8</v>
       </c>
       <c r="C356" s="16" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D356" s="17" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="E356" s="16" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F356" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G356" s="18">
         <v>781242</v>
@@ -9124,16 +9112,16 @@
         <v>8</v>
       </c>
       <c r="C357" s="16" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D357" s="17" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E357" s="16" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F357" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G357" s="18">
         <v>781242</v>
@@ -9147,16 +9135,16 @@
         <v>8</v>
       </c>
       <c r="C358" s="16" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="D358" s="17" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="E358" s="16" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F358" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G358" s="18">
         <v>781242</v>
@@ -9170,16 +9158,16 @@
         <v>8</v>
       </c>
       <c r="C359" s="16" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="D359" s="17" t="s">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="E359" s="16" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F359" s="18">
-        <v>27578</v>
+        <v>31249</v>
       </c>
       <c r="G359" s="18">
         <v>781242</v>
@@ -9193,16 +9181,16 @@
         <v>8</v>
       </c>
       <c r="C360" s="16" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="D360" s="17" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="E360" s="16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F360" s="18">
-        <v>25740</v>
+        <v>31249</v>
       </c>
       <c r="G360" s="18">
         <v>781242</v>
@@ -9216,19 +9204,19 @@
         <v>8</v>
       </c>
       <c r="C361" s="16" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="D361" s="17" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E361" s="16" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F361" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G361" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H361" s="19"/>
       <c r="I361" s="19"/>
@@ -9239,16 +9227,16 @@
         <v>8</v>
       </c>
       <c r="C362" s="16" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D362" s="17" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E362" s="16" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="F362" s="18">
-        <v>22916</v>
+        <v>31249</v>
       </c>
       <c r="G362" s="18">
         <v>781242</v>
@@ -9262,13 +9250,13 @@
         <v>8</v>
       </c>
       <c r="C363" s="16" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D363" s="17" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E363" s="16" t="s">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="F363" s="18">
         <v>31249</v>
@@ -9285,13 +9273,13 @@
         <v>8</v>
       </c>
       <c r="C364" s="16" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D364" s="17" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E364" s="16" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="F364" s="18">
         <v>31249</v>
@@ -9308,13 +9296,13 @@
         <v>8</v>
       </c>
       <c r="C365" s="16" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D365" s="17" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E365" s="16" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F365" s="18">
         <v>31249</v>
@@ -9331,13 +9319,13 @@
         <v>8</v>
       </c>
       <c r="C366" s="16" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D366" s="17" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E366" s="16" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F366" s="18">
         <v>31249</v>
@@ -9354,13 +9342,13 @@
         <v>8</v>
       </c>
       <c r="C367" s="16" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D367" s="17" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E367" s="16" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="F367" s="18">
         <v>31249</v>
@@ -9377,13 +9365,13 @@
         <v>8</v>
       </c>
       <c r="C368" s="16" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D368" s="17" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E368" s="16" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="F368" s="18">
         <v>31249</v>
@@ -9400,13 +9388,13 @@
         <v>8</v>
       </c>
       <c r="C369" s="16" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D369" s="17" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>21</v>
+        <v>91</v>
       </c>
       <c r="F369" s="18">
         <v>31249</v>
@@ -9423,13 +9411,13 @@
         <v>8</v>
       </c>
       <c r="C370" s="16" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D370" s="17" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E370" s="16" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="F370" s="18">
         <v>31249</v>
@@ -9446,13 +9434,13 @@
         <v>8</v>
       </c>
       <c r="C371" s="16" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D371" s="17" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E371" s="16" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="F371" s="18">
         <v>31249</v>
@@ -9469,13 +9457,13 @@
         <v>8</v>
       </c>
       <c r="C372" s="16" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D372" s="17" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E372" s="16" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="F372" s="18">
         <v>31249</v>
@@ -9492,13 +9480,13 @@
         <v>8</v>
       </c>
       <c r="C373" s="16" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D373" s="17" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E373" s="16" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="F373" s="18">
         <v>31249</v>
@@ -9515,13 +9503,13 @@
         <v>8</v>
       </c>
       <c r="C374" s="16" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D374" s="17" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E374" s="16" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="F374" s="18">
         <v>31249</v>
@@ -9538,13 +9526,13 @@
         <v>8</v>
       </c>
       <c r="C375" s="16" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D375" s="17" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E375" s="16" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="F375" s="18">
         <v>31249</v>
@@ -9561,13 +9549,13 @@
         <v>8</v>
       </c>
       <c r="C376" s="16" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D376" s="17" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E376" s="16" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="F376" s="18">
         <v>31249</v>
@@ -9584,13 +9572,13 @@
         <v>8</v>
       </c>
       <c r="C377" s="16" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D377" s="17" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E377" s="16" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="F377" s="18">
         <v>31249</v>
@@ -9607,13 +9595,13 @@
         <v>8</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D378" s="17" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E378" s="16" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F378" s="18">
         <v>31249</v>
@@ -9630,13 +9618,13 @@
         <v>8</v>
       </c>
       <c r="C379" s="16" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D379" s="17" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E379" s="16" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="F379" s="18">
         <v>31249</v>
@@ -9653,13 +9641,13 @@
         <v>8</v>
       </c>
       <c r="C380" s="16" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E380" s="16" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="F380" s="18">
         <v>31249</v>
@@ -9676,13 +9664,13 @@
         <v>8</v>
       </c>
       <c r="C381" s="16" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D381" s="17" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E381" s="16" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="F381" s="18">
         <v>31249</v>
@@ -9699,13 +9687,13 @@
         <v>8</v>
       </c>
       <c r="C382" s="16" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E382" s="16" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="F382" s="18">
         <v>31249</v>
@@ -9722,13 +9710,13 @@
         <v>8</v>
       </c>
       <c r="C383" s="16" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D383" s="17" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E383" s="16" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="F383" s="18">
         <v>31249</v>
@@ -9745,13 +9733,13 @@
         <v>8</v>
       </c>
       <c r="C384" s="16" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D384" s="17" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E384" s="16" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="F384" s="18">
         <v>31249</v>
@@ -9768,13 +9756,13 @@
         <v>8</v>
       </c>
       <c r="C385" s="16" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D385" s="17" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E385" s="16" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="F385" s="18">
         <v>31249</v>
@@ -9791,13 +9779,13 @@
         <v>8</v>
       </c>
       <c r="C386" s="16" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D386" s="17" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E386" s="16" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="F386" s="18">
         <v>31249</v>
@@ -9814,13 +9802,13 @@
         <v>8</v>
       </c>
       <c r="C387" s="16" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D387" s="17" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E387" s="16" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F387" s="18">
         <v>31249</v>
@@ -9837,13 +9825,13 @@
         <v>8</v>
       </c>
       <c r="C388" s="16" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D388" s="17" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E388" s="16" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F388" s="18">
         <v>31249</v>
@@ -9860,13 +9848,13 @@
         <v>8</v>
       </c>
       <c r="C389" s="16" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D389" s="17" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E389" s="16" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="F389" s="18">
         <v>31249</v>
@@ -9883,13 +9871,13 @@
         <v>8</v>
       </c>
       <c r="C390" s="16" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D390" s="17" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E390" s="16" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="F390" s="18">
         <v>31249</v>
@@ -9906,13 +9894,13 @@
         <v>8</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D391" s="17" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E391" s="16" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="F391" s="18">
         <v>31249</v>
@@ -9929,13 +9917,13 @@
         <v>8</v>
       </c>
       <c r="C392" s="16" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D392" s="17" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E392" s="16" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F392" s="18">
         <v>31249</v>
@@ -9952,13 +9940,13 @@
         <v>8</v>
       </c>
       <c r="C393" s="16" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D393" s="17" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E393" s="16" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="F393" s="18">
         <v>31249</v>
@@ -9975,13 +9963,13 @@
         <v>8</v>
       </c>
       <c r="C394" s="16" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D394" s="17" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E394" s="16" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="F394" s="18">
         <v>31249</v>
@@ -9998,13 +9986,13 @@
         <v>8</v>
       </c>
       <c r="C395" s="16" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D395" s="17" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E395" s="16" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F395" s="18">
         <v>31249</v>
@@ -10021,13 +10009,13 @@
         <v>8</v>
       </c>
       <c r="C396" s="16" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D396" s="17" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E396" s="16" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="F396" s="18">
         <v>31249</v>
@@ -10044,13 +10032,13 @@
         <v>8</v>
       </c>
       <c r="C397" s="16" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D397" s="17" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E397" s="16" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="F397" s="18">
         <v>31249</v>
@@ -10067,13 +10055,13 @@
         <v>8</v>
       </c>
       <c r="C398" s="16" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D398" s="17" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E398" s="16" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F398" s="18">
         <v>31249</v>
@@ -10090,13 +10078,13 @@
         <v>8</v>
       </c>
       <c r="C399" s="16" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D399" s="17" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E399" s="16" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F399" s="18">
         <v>31249</v>
@@ -10113,13 +10101,13 @@
         <v>8</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D400" s="17" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E400" s="16" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="F400" s="18">
         <v>31249</v>
@@ -10136,13 +10124,13 @@
         <v>8</v>
       </c>
       <c r="C401" s="16" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D401" s="17" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E401" s="16" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F401" s="18">
         <v>31249</v>
@@ -10159,13 +10147,13 @@
         <v>8</v>
       </c>
       <c r="C402" s="16" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D402" s="17" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E402" s="16" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="F402" s="18">
         <v>31249</v>
@@ -10182,13 +10170,13 @@
         <v>8</v>
       </c>
       <c r="C403" s="16" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D403" s="17" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E403" s="16" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="F403" s="18">
         <v>31249</v>
@@ -10205,13 +10193,13 @@
         <v>8</v>
       </c>
       <c r="C404" s="16" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D404" s="17" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="E404" s="16" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="F404" s="18">
         <v>31249</v>
@@ -10228,13 +10216,13 @@
         <v>8</v>
       </c>
       <c r="C405" s="16" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D405" s="17" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E405" s="16" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="F405" s="18">
         <v>31249</v>
@@ -10251,13 +10239,13 @@
         <v>8</v>
       </c>
       <c r="C406" s="16" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D406" s="17" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="E406" s="16" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="F406" s="18">
         <v>31249</v>
@@ -10274,13 +10262,13 @@
         <v>8</v>
       </c>
       <c r="C407" s="16" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D407" s="17" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="E407" s="16" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="F407" s="18">
         <v>31249</v>
@@ -10297,16 +10285,16 @@
         <v>8</v>
       </c>
       <c r="C408" s="16" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D408" s="17" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="E408" s="16" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="F408" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G408" s="18">
         <v>781242</v>
@@ -10320,16 +10308,16 @@
         <v>8</v>
       </c>
       <c r="C409" s="16" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="D409" s="17" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="E409" s="16" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="F409" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G409" s="18">
         <v>781242</v>
@@ -10343,16 +10331,16 @@
         <v>8</v>
       </c>
       <c r="C410" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D410" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E410" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D410" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E410" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F410" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G410" s="18">
         <v>781242</v>
@@ -10366,16 +10354,16 @@
         <v>8</v>
       </c>
       <c r="C411" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D411" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E411" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D411" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E411" s="16" t="s">
-        <v>63</v>
-      </c>
       <c r="F411" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G411" s="18">
         <v>781242</v>
@@ -10389,16 +10377,16 @@
         <v>8</v>
       </c>
       <c r="C412" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D412" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E412" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D412" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E412" s="16" t="s">
-        <v>64</v>
-      </c>
       <c r="F412" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G412" s="18">
         <v>781242</v>
@@ -10412,16 +10400,16 @@
         <v>8</v>
       </c>
       <c r="C413" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D413" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E413" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D413" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E413" s="16" t="s">
-        <v>65</v>
-      </c>
       <c r="F413" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G413" s="18">
         <v>781242</v>
@@ -10435,16 +10423,16 @@
         <v>8</v>
       </c>
       <c r="C414" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D414" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E414" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D414" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E414" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="F414" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G414" s="18">
         <v>781242</v>
@@ -10458,16 +10446,16 @@
         <v>8</v>
       </c>
       <c r="C415" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D415" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E415" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D415" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E415" s="16" t="s">
-        <v>67</v>
-      </c>
       <c r="F415" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G415" s="18">
         <v>781242</v>
@@ -10481,16 +10469,16 @@
         <v>8</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D416" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E416" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E416" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="F416" s="18">
-        <v>29509</v>
+        <v>22916</v>
       </c>
       <c r="G416" s="18">
         <v>781242</v>
@@ -10504,16 +10492,16 @@
         <v>8</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D417" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E417" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E417" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="F417" s="18">
-        <v>29509</v>
+        <v>22916</v>
       </c>
       <c r="G417" s="18">
         <v>781242</v>
@@ -10527,16 +10515,16 @@
         <v>8</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D418" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E418" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E418" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="F418" s="18">
-        <v>29509</v>
+        <v>22916</v>
       </c>
       <c r="G418" s="18">
         <v>781242</v>
@@ -10550,16 +10538,16 @@
         <v>8</v>
       </c>
       <c r="C419" s="16" t="s">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="D419" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E419" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E419" s="16" t="s">
-        <v>76</v>
-      </c>
       <c r="F419" s="18">
-        <v>29509</v>
+        <v>22916</v>
       </c>
       <c r="G419" s="18">
         <v>781242</v>
@@ -10573,16 +10561,16 @@
         <v>8</v>
       </c>
       <c r="C420" s="16" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="D420" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E420" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="E420" s="16" t="s">
-        <v>77</v>
-      </c>
       <c r="F420" s="18">
-        <v>29509</v>
+        <v>22916</v>
       </c>
       <c r="G420" s="18">
         <v>781242</v>
@@ -10592,1436 +10580,56 @@
       <c r="J420" s="20"/>
     </row>
     <row r="421" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B421" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C421" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D421" s="17" t="s">
+      <c r="B421" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C421" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D421" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E421" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="E421" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F421" s="18">
-        <v>25575</v>
-      </c>
-      <c r="G421" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H421" s="19"/>
-      <c r="I421" s="19"/>
-      <c r="J421" s="20"/>
-    </row>
-    <row r="422" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B422" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C422" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D422" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E422" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F422" s="18">
+      <c r="F421" s="24">
         <v>22916</v>
       </c>
-      <c r="G422" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H422" s="19"/>
-      <c r="I422" s="19"/>
-      <c r="J422" s="20"/>
-    </row>
-    <row r="423" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B423" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C423" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D423" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E423" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F423" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G423" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H423" s="19"/>
-      <c r="I423" s="19"/>
-      <c r="J423" s="20"/>
-    </row>
-    <row r="424" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B424" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C424" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D424" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E424" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F424" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G424" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H424" s="19"/>
-      <c r="I424" s="19"/>
-      <c r="J424" s="20"/>
-    </row>
-    <row r="425" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B425" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C425" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D425" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E425" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F425" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G425" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H425" s="19"/>
-      <c r="I425" s="19"/>
-      <c r="J425" s="20"/>
+      <c r="G421" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H421" s="25"/>
+      <c r="I421" s="25"/>
+      <c r="J421" s="26"/>
     </row>
     <row r="426" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B426" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C426" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D426" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E426" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F426" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G426" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H426" s="19"/>
-      <c r="I426" s="19"/>
-      <c r="J426" s="20"/>
+      <c r="B426" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C426" s="32"/>
+      <c r="H426" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I426" s="1"/>
+      <c r="J426" s="1"/>
     </row>
     <row r="427" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B427" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C427" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D427" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E427" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F427" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G427" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H427" s="19"/>
-      <c r="I427" s="19"/>
-      <c r="J427" s="20"/>
-    </row>
-    <row r="428" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B428" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C428" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D428" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E428" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F428" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G428" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H428" s="19"/>
-      <c r="I428" s="19"/>
-      <c r="J428" s="20"/>
-    </row>
-    <row r="429" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B429" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C429" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D429" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E429" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F429" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G429" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H429" s="19"/>
-      <c r="I429" s="19"/>
-      <c r="J429" s="20"/>
-    </row>
-    <row r="430" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B430" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C430" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D430" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E430" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F430" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G430" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H430" s="19"/>
-      <c r="I430" s="19"/>
-      <c r="J430" s="20"/>
-    </row>
-    <row r="431" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B431" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C431" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D431" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E431" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F431" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G431" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H431" s="19"/>
-      <c r="I431" s="19"/>
-      <c r="J431" s="20"/>
-    </row>
-    <row r="432" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B432" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C432" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D432" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E432" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F432" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G432" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H432" s="19"/>
-      <c r="I432" s="19"/>
-      <c r="J432" s="20"/>
-    </row>
-    <row r="433" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B433" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C433" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D433" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E433" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F433" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G433" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H433" s="19"/>
-      <c r="I433" s="19"/>
-      <c r="J433" s="20"/>
-    </row>
-    <row r="434" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B434" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C434" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D434" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E434" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F434" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G434" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H434" s="19"/>
-      <c r="I434" s="19"/>
-      <c r="J434" s="20"/>
-    </row>
-    <row r="435" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B435" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C435" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D435" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E435" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F435" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G435" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H435" s="19"/>
-      <c r="I435" s="19"/>
-      <c r="J435" s="20"/>
-    </row>
-    <row r="436" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B436" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C436" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D436" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E436" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F436" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G436" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H436" s="19"/>
-      <c r="I436" s="19"/>
-      <c r="J436" s="20"/>
-    </row>
-    <row r="437" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B437" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C437" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D437" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E437" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F437" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G437" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H437" s="19"/>
-      <c r="I437" s="19"/>
-      <c r="J437" s="20"/>
-    </row>
-    <row r="438" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B438" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C438" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D438" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E438" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F438" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G438" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H438" s="19"/>
-      <c r="I438" s="19"/>
-      <c r="J438" s="20"/>
-    </row>
-    <row r="439" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B439" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C439" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D439" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E439" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F439" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G439" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H439" s="19"/>
-      <c r="I439" s="19"/>
-      <c r="J439" s="20"/>
-    </row>
-    <row r="440" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B440" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C440" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D440" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E440" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F440" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G440" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H440" s="19"/>
-      <c r="I440" s="19"/>
-      <c r="J440" s="20"/>
-    </row>
-    <row r="441" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B441" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C441" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D441" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E441" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F441" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G441" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H441" s="19"/>
-      <c r="I441" s="19"/>
-      <c r="J441" s="20"/>
-    </row>
-    <row r="442" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B442" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C442" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D442" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E442" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F442" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G442" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H442" s="19"/>
-      <c r="I442" s="19"/>
-      <c r="J442" s="20"/>
-    </row>
-    <row r="443" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B443" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C443" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D443" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E443" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F443" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G443" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H443" s="19"/>
-      <c r="I443" s="19"/>
-      <c r="J443" s="20"/>
-    </row>
-    <row r="444" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B444" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C444" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D444" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E444" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F444" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G444" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H444" s="19"/>
-      <c r="I444" s="19"/>
-      <c r="J444" s="20"/>
-    </row>
-    <row r="445" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B445" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C445" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D445" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E445" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F445" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G445" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H445" s="19"/>
-      <c r="I445" s="19"/>
-      <c r="J445" s="20"/>
-    </row>
-    <row r="446" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B446" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C446" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D446" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E446" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F446" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G446" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H446" s="19"/>
-      <c r="I446" s="19"/>
-      <c r="J446" s="20"/>
-    </row>
-    <row r="447" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B447" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C447" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D447" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E447" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F447" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G447" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H447" s="19"/>
-      <c r="I447" s="19"/>
-      <c r="J447" s="20"/>
-    </row>
-    <row r="448" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B448" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C448" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D448" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E448" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F448" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G448" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H448" s="19"/>
-      <c r="I448" s="19"/>
-      <c r="J448" s="20"/>
-    </row>
-    <row r="449" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B449" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C449" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D449" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E449" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F449" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G449" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H449" s="19"/>
-      <c r="I449" s="19"/>
-      <c r="J449" s="20"/>
-    </row>
-    <row r="450" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B450" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C450" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D450" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E450" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F450" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G450" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H450" s="19"/>
-      <c r="I450" s="19"/>
-      <c r="J450" s="20"/>
-    </row>
-    <row r="451" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B451" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C451" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D451" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E451" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F451" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G451" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H451" s="19"/>
-      <c r="I451" s="19"/>
-      <c r="J451" s="20"/>
-    </row>
-    <row r="452" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B452" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C452" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D452" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E452" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F452" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G452" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H452" s="19"/>
-      <c r="I452" s="19"/>
-      <c r="J452" s="20"/>
-    </row>
-    <row r="453" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B453" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C453" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D453" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E453" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F453" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G453" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H453" s="19"/>
-      <c r="I453" s="19"/>
-      <c r="J453" s="20"/>
-    </row>
-    <row r="454" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B454" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C454" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D454" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E454" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F454" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G454" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H454" s="19"/>
-      <c r="I454" s="19"/>
-      <c r="J454" s="20"/>
-    </row>
-    <row r="455" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B455" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C455" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D455" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E455" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F455" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G455" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H455" s="19"/>
-      <c r="I455" s="19"/>
-      <c r="J455" s="20"/>
-    </row>
-    <row r="456" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B456" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C456" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D456" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E456" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F456" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G456" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H456" s="19"/>
-      <c r="I456" s="19"/>
-      <c r="J456" s="20"/>
-    </row>
-    <row r="457" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B457" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C457" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D457" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E457" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F457" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G457" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H457" s="19"/>
-      <c r="I457" s="19"/>
-      <c r="J457" s="20"/>
-    </row>
-    <row r="458" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B458" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C458" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D458" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E458" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="F458" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G458" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H458" s="19"/>
-      <c r="I458" s="19"/>
-      <c r="J458" s="20"/>
-    </row>
-    <row r="459" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B459" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C459" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D459" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E459" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F459" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G459" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H459" s="19"/>
-      <c r="I459" s="19"/>
-      <c r="J459" s="20"/>
-    </row>
-    <row r="460" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B460" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C460" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D460" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E460" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F460" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G460" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H460" s="19"/>
-      <c r="I460" s="19"/>
-      <c r="J460" s="20"/>
-    </row>
-    <row r="461" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B461" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C461" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D461" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E461" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F461" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G461" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H461" s="19"/>
-      <c r="I461" s="19"/>
-      <c r="J461" s="20"/>
-    </row>
-    <row r="462" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B462" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C462" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D462" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E462" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F462" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G462" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H462" s="19"/>
-      <c r="I462" s="19"/>
-      <c r="J462" s="20"/>
-    </row>
-    <row r="463" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B463" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C463" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D463" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E463" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F463" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G463" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H463" s="19"/>
-      <c r="I463" s="19"/>
-      <c r="J463" s="20"/>
-    </row>
-    <row r="464" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B464" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C464" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D464" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E464" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F464" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G464" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H464" s="19"/>
-      <c r="I464" s="19"/>
-      <c r="J464" s="20"/>
-    </row>
-    <row r="465" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B465" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C465" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D465" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E465" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F465" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G465" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H465" s="19"/>
-      <c r="I465" s="19"/>
-      <c r="J465" s="20"/>
-    </row>
-    <row r="466" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B466" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C466" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D466" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E466" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F466" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G466" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H466" s="19"/>
-      <c r="I466" s="19"/>
-      <c r="J466" s="20"/>
-    </row>
-    <row r="467" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B467" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C467" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D467" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E467" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F467" s="18">
-        <v>31249</v>
-      </c>
-      <c r="G467" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H467" s="19"/>
-      <c r="I467" s="19"/>
-      <c r="J467" s="20"/>
-    </row>
-    <row r="468" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B468" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C468" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D468" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E468" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F468" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G468" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H468" s="19"/>
-      <c r="I468" s="19"/>
-      <c r="J468" s="20"/>
-    </row>
-    <row r="469" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B469" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C469" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D469" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E469" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F469" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G469" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H469" s="19"/>
-      <c r="I469" s="19"/>
-      <c r="J469" s="20"/>
-    </row>
-    <row r="470" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B470" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C470" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D470" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E470" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F470" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G470" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H470" s="19"/>
-      <c r="I470" s="19"/>
-      <c r="J470" s="20"/>
-    </row>
-    <row r="471" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B471" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C471" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D471" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E471" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F471" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G471" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H471" s="19"/>
-      <c r="I471" s="19"/>
-      <c r="J471" s="20"/>
-    </row>
-    <row r="472" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B472" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C472" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D472" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E472" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="F472" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G472" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H472" s="19"/>
-      <c r="I472" s="19"/>
-      <c r="J472" s="20"/>
-    </row>
-    <row r="473" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B473" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C473" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D473" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E473" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F473" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G473" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H473" s="19"/>
-      <c r="I473" s="19"/>
-      <c r="J473" s="20"/>
-    </row>
-    <row r="474" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B474" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C474" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D474" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E474" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F474" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G474" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H474" s="19"/>
-      <c r="I474" s="19"/>
-      <c r="J474" s="20"/>
-    </row>
-    <row r="475" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B475" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C475" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D475" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E475" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F475" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G475" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H475" s="19"/>
-      <c r="I475" s="19"/>
-      <c r="J475" s="20"/>
-    </row>
-    <row r="476" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B476" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C476" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D476" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E476" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F476" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G476" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H476" s="19"/>
-      <c r="I476" s="19"/>
-      <c r="J476" s="20"/>
-    </row>
-    <row r="477" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B477" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C477" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D477" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E477" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F477" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G477" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H477" s="19"/>
-      <c r="I477" s="19"/>
-      <c r="J477" s="20"/>
-    </row>
-    <row r="478" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B478" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C478" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D478" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E478" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F478" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G478" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H478" s="19"/>
-      <c r="I478" s="19"/>
-      <c r="J478" s="20"/>
-    </row>
-    <row r="479" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B479" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C479" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D479" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E479" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F479" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G479" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H479" s="19"/>
-      <c r="I479" s="19"/>
-      <c r="J479" s="20"/>
-    </row>
-    <row r="480" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B480" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C480" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D480" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E480" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F480" s="18">
-        <v>3935</v>
-      </c>
-      <c r="G480" s="18">
-        <v>781242</v>
-      </c>
-      <c r="H480" s="19"/>
-      <c r="I480" s="19"/>
-      <c r="J480" s="20"/>
-    </row>
-    <row r="481" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B481" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C481" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="D481" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E481" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F481" s="24">
-        <v>20833</v>
-      </c>
-      <c r="G481" s="24">
-        <v>781242</v>
-      </c>
-      <c r="H481" s="25"/>
-      <c r="I481" s="25"/>
-      <c r="J481" s="26"/>
-    </row>
-    <row r="486" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B486" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C486" s="32"/>
-      <c r="H486" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I486" s="1"/>
-      <c r="J486" s="1"/>
-    </row>
-    <row r="487" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B487" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C487" s="32"/>
-      <c r="H487" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I487" s="1"/>
-      <c r="J487" s="1"/>
+      <c r="B427" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C427" s="32"/>
+      <c r="H427" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I427" s="1"/>
+      <c r="J427" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B487:C487"/>
-    <mergeCell ref="B486:C486"/>
-    <mergeCell ref="H487:J487"/>
-    <mergeCell ref="H486:J486"/>
+    <mergeCell ref="B427:C427"/>
+    <mergeCell ref="B426:C426"/>
+    <mergeCell ref="H427:J427"/>
+    <mergeCell ref="H426:J426"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
